--- a/biology/Botanique/Tillandsia_pulchella/Tillandsia_pulchella.xlsx
+++ b/biology/Botanique/Tillandsia_pulchella/Tillandsia_pulchella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pulchella Hook. est une espèce de plantes à fleurs de la famille des Bromeliaceae
 L'épithète pulchella signifie "jolie, mignonne".
@@ -512,7 +524,9 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia pulchella Hook., Exot. Fl. 2: tab. 154 (1825)
 Diagnose originale : (à compléter)
@@ -547,13 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-Anoplophytum pulchellum Beer
-Synonymie taxonomique
-Tillandsia tenuifolia L[1],[2].
-Anoplophytum amoenum E.Morren[3]
-Tillandsia subulata Vell[3].
-Diaphoranthema subulata Beer[3]</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anoplophytum pulchellum Beer</t>
         </is>
       </c>
     </row>
@@ -578,10 +592,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia tenuifolia L,.
+Anoplophytum amoenum E.Morren
+Tillandsia subulata Vell.
+Diaphoranthema subulata Beer</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,16 +631,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée en rosette monocarpique vivace par ses rejets latéraux ; épiphyte[3],[4].
-Habitat : ?
-Altitude : ?</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,21 +659,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du Sud :
- Argentine[3]
-Salta[3]
- Brésil
-Bahia[3]
-Rio de Janeiro[3]
-Minas Gerais[3]
-Paraná[3]
- Paraguay[4]
- Suriname[3]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée en rosette monocarpique vivace par ses rejets latéraux ; épiphyte,.
+Habitat : ?
+Altitude : ?</t>
         </is>
       </c>
     </row>
@@ -675,10 +693,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du Sud :
+ Argentine
+Salta
+ Brésil
+Bahia
+Rio de Janeiro
+Minas Gerais
+Paraná
+ Paraguay
+ Suriname</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -701,56 +734,334 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia pulchella var. pulchella
-(autonyme)
-Tillandsia pulchella f. pulchella
-(autonyme)
-Tillandsia pulchella var. disticha L.B.Sm.
-Tillandsia pulchella var. disticha L.B.Sm., in Arq. Bot. Estado Sao Paulo 1: 114, tab. 117 (1943)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella var. pulchella</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella f. pulchella</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella var. disticha L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pulchella var. disticha L.B.Sm., in Arq. Bot. Estado Sao Paulo 1: 114, tab. 117 (1943)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Synonymie :
 Tillandsia tenuifolia var. disticha (L.B.Sm.) L.B.Sm.
 Distribution : Brésil (Rio de Janeiro).
-Tillandsia pulchella var. pitiphylla (Mart. ex Schult.f. ) Mez
-Tillandsia pulchella var. pitiphylla (Mart. ex Schult.f. ) Mez in Mart., Fl. Bras. 3(3): 603 (1894)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella var. pitiphylla (Mart. ex Schult.f. ) Mez</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pulchella var. pitiphylla (Mart. ex Schult.f. ) Mez in Mart., Fl. Bras. 3(3): 603 (1894)
 Synonymie :
 [ basionyme ] Tillandsia pitiphylla Mart. ex Schult.f.
-Tillandsia pulchella var. rosea (Lindl.) Mez
-Tillandsia pulchella var. rosea (Lindl.) Mez in Mart., Fl. Bras. 3(3): 603 (1894)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella var. rosea (Lindl.) Mez</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pulchella var. rosea (Lindl.) Mez in Mart., Fl. Bras. 3(3): 603 (1894)
 Synonymie :
 [ basionyme ] Tillandsia rosea Lindl.
-Tillandsia pulchella var. saxicola L.B.Sm.
-Tillandsia pulchella var. saxicola L.B.Sm., in Arq. Bot. Estado Sao Paulo 1: 115, tab. 118 (1943)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella var. saxicola L.B.Sm.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pulchella var. saxicola L.B.Sm., in Arq. Bot. Estado Sao Paulo 1: 115, tab. 118 (1943)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Synonymie :
 Tillandsia tenuifolia var. saxicola (L.B.Sm.) L.B.Sm.
 Distribution : Brésil (Sao Paulo).
-Tillandsia pulchella var. surinamensis Miq. ex Mez
-Tillandsia pulchella var. surinamensis Miq. ex Mez in Mart., Fl. Bras. 3(3): 603 (1894)
-Diagnose originale[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella var. surinamensis Miq. ex Mez</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pulchella var. surinamensis Miq. ex Mez in Mart., Fl. Bras. 3(3): 603 (1894)
+Diagnose originale :
 « Var. Surinamensis Miq. (spec.) habitu ut in praedecente [var. rosea ] percrasso a typo differt sed folia plerumque unilateraliter curvata, inflorescentia folia solemniter superans. Spica elongata a typo ulterius recedit. »
-Type : Mez cite[3] de multiples spécimens, sans désigner explicitement un holotype et aucune illustration n'est incluse dans le protologue qui pourrait en tenir lieu.
+Type : Mez cite de multiples spécimens, sans désigner explicitement un holotype et aucune illustration n'est incluse dans le protologue qui pourrait en tenir lieu.
 leg. W.R. Hostmann, n° 592, 1846 ; "In Surinam" ; Isotypus MO (MO-104677)
 Synonymie :
 Tillandsia tenuifolia var. surinamensis (Mez) L.B.Sm.
 Tillandsia pulchella f. surinamensis (Mez) Luetzelb.
 Distribution :
- Guyana[4]
- Suriname[3]
+ Guyana
+ Suriname
  Brésil
-Rio de Janeiro[3]
-Paraná[3]
-Santa Catarina[4]
-Rio Grande do Sul[4]
-Tillandsia pulchella f. surinamensis (Mez) Luetzelb.
-Tillandsia pulchella f. surinamensis (Mez) Luetzelb., Estud. Bot. Nordéste 3: 104 (1923)
+Rio de Janeiro
+Paraná
+Santa Catarina
+Rio Grande do Sul
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_pulchella</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Taxons infraspécifiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tillandsia pulchella f. surinamensis (Mez) Luetzelb.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia pulchella f. surinamensis (Mez) Luetzelb., Estud. Bot. Nordéste 3: 104 (1923)
 Synonymie :
 [ basionyme ] Tillandsia pulchella var. surinamensis Mez
 </t>
